--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Ntn1-Unc5c.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Ntn1-Unc5c.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -80,6 +80,15 @@
   </si>
   <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>Neutro</t>
   </si>
   <si>
     <t>sCs</t>
@@ -446,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.66317781127442</v>
+        <v>0.8475943333333333</v>
       </c>
       <c r="H2">
-        <v>0.66317781127442</v>
+        <v>2.542783</v>
       </c>
       <c r="I2">
-        <v>0.04596063290898338</v>
+        <v>0.05593357876111178</v>
       </c>
       <c r="J2">
-        <v>0.04596063290898338</v>
+        <v>0.05593357876111178</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.580148833813551</v>
+        <v>0.003305</v>
       </c>
       <c r="N2">
-        <v>0.580148833813551</v>
+        <v>0.009915</v>
       </c>
       <c r="O2">
-        <v>0.800794551462803</v>
+        <v>0.004314559451496128</v>
       </c>
       <c r="P2">
-        <v>0.800794551462803</v>
+        <v>0.004314559451496128</v>
       </c>
       <c r="Q2">
-        <v>0.3847418338218779</v>
+        <v>0.002801299271666667</v>
       </c>
       <c r="R2">
-        <v>0.3847418338218779</v>
+        <v>0.025211693445</v>
       </c>
       <c r="S2">
-        <v>0.03680502441529589</v>
+        <v>0.0002413287508997579</v>
       </c>
       <c r="T2">
-        <v>0.03680502441529589</v>
+        <v>0.0002413287508997579</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,309 +590,1425 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.66317781127442</v>
+        <v>0.8475943333333333</v>
       </c>
       <c r="H3">
-        <v>0.66317781127442</v>
+        <v>2.542783</v>
       </c>
       <c r="I3">
-        <v>0.04596063290898338</v>
+        <v>0.05593357876111178</v>
       </c>
       <c r="J3">
-        <v>0.04596063290898338</v>
+        <v>0.05593357876111178</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.144317676046936</v>
+        <v>0.583722</v>
       </c>
       <c r="N3">
-        <v>0.144317676046936</v>
+        <v>1.751166</v>
       </c>
       <c r="O3">
-        <v>0.199205448537197</v>
+        <v>0.7620282215268449</v>
       </c>
       <c r="P3">
-        <v>0.199205448537197</v>
+        <v>0.762028221526845</v>
       </c>
       <c r="Q3">
-        <v>0.09570828052901779</v>
+        <v>0.4947594594419999</v>
       </c>
       <c r="R3">
-        <v>0.09570828052901779</v>
+        <v>4.452835134978</v>
       </c>
       <c r="S3">
-        <v>0.009155608493687493</v>
+        <v>0.04262296554696172</v>
       </c>
       <c r="T3">
-        <v>0.009155608493687493</v>
+        <v>0.04262296554696172</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s">
         <v>24</v>
       </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>10.5029243284906</v>
+        <v>0.8475943333333333</v>
       </c>
       <c r="H4">
-        <v>10.5029243284906</v>
+        <v>2.542783</v>
       </c>
       <c r="I4">
-        <v>0.7278908330858485</v>
+        <v>0.05593357876111178</v>
       </c>
       <c r="J4">
-        <v>0.7278908330858485</v>
+        <v>0.05593357876111178</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.580148833813551</v>
+        <v>0.02620133333333333</v>
       </c>
       <c r="N4">
-        <v>0.580148833813551</v>
+        <v>0.07860399999999999</v>
       </c>
       <c r="O4">
-        <v>0.800794551462803</v>
+        <v>0.03420490480336879</v>
       </c>
       <c r="P4">
-        <v>0.800794551462803</v>
+        <v>0.0342049048033688</v>
       </c>
       <c r="Q4">
-        <v>6.093259300805795</v>
+        <v>0.02220810165911111</v>
       </c>
       <c r="R4">
-        <v>6.093259300805795</v>
+        <v>0.199872914932</v>
       </c>
       <c r="S4">
-        <v>0.582891013194868</v>
+        <v>0.001913202736835559</v>
       </c>
       <c r="T4">
-        <v>0.582891013194868</v>
+        <v>0.001913202736835559</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>10.5029243284906</v>
+        <v>0.8475943333333333</v>
       </c>
       <c r="H5">
-        <v>10.5029243284906</v>
+        <v>2.542783</v>
       </c>
       <c r="I5">
-        <v>0.7278908330858485</v>
+        <v>0.05593357876111178</v>
       </c>
       <c r="J5">
-        <v>0.7278908330858485</v>
+        <v>0.05593357876111178</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.144317676046936</v>
+        <v>0.1527826666666667</v>
       </c>
       <c r="N5">
-        <v>0.144317676046936</v>
+        <v>0.458348</v>
       </c>
       <c r="O5">
-        <v>0.199205448537197</v>
+        <v>0.1994523142182902</v>
       </c>
       <c r="P5">
-        <v>0.199205448537197</v>
+        <v>0.1994523142182902</v>
       </c>
       <c r="Q5">
-        <v>1.515757630784589</v>
+        <v>0.1294977224982222</v>
       </c>
       <c r="R5">
-        <v>1.515757630784589</v>
+        <v>1.165479502484</v>
       </c>
       <c r="S5">
-        <v>0.1449998198909805</v>
+        <v>0.01115608172641475</v>
       </c>
       <c r="T5">
-        <v>0.1449998198909805</v>
+        <v>0.01115608172641475</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.2631554509153</v>
+        <v>10.71350466666667</v>
       </c>
       <c r="H6">
-        <v>3.2631554509153</v>
+        <v>32.140514</v>
       </c>
       <c r="I6">
-        <v>0.2261485340051682</v>
+        <v>0.7069946476917676</v>
       </c>
       <c r="J6">
-        <v>0.2261485340051682</v>
+        <v>0.7069946476917675</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.580148833813551</v>
+        <v>0.003305</v>
       </c>
       <c r="N6">
-        <v>0.580148833813551</v>
+        <v>0.009915</v>
       </c>
       <c r="O6">
-        <v>0.800794551462803</v>
+        <v>0.004314559451496128</v>
       </c>
       <c r="P6">
-        <v>0.800794551462803</v>
+        <v>0.004314559451496128</v>
       </c>
       <c r="Q6">
-        <v>1.893115829400843</v>
+        <v>0.03540813292333333</v>
       </c>
       <c r="R6">
-        <v>1.893115829400843</v>
+        <v>0.31867319631</v>
       </c>
       <c r="S6">
-        <v>0.1810985138526391</v>
+        <v>0.003050370439355691</v>
       </c>
       <c r="T6">
-        <v>0.1810985138526391</v>
+        <v>0.00305037043935569</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>10.71350466666667</v>
+      </c>
+      <c r="H7">
+        <v>32.140514</v>
+      </c>
+      <c r="I7">
+        <v>0.7069946476917676</v>
+      </c>
+      <c r="J7">
+        <v>0.7069946476917675</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0.583722</v>
+      </c>
+      <c r="N7">
+        <v>1.751166</v>
+      </c>
+      <c r="O7">
+        <v>0.7620282215268449</v>
+      </c>
+      <c r="P7">
+        <v>0.762028221526845</v>
+      </c>
+      <c r="Q7">
+        <v>6.253708371035999</v>
+      </c>
+      <c r="R7">
+        <v>56.283375339324</v>
+      </c>
+      <c r="S7">
+        <v>0.5387498740095559</v>
+      </c>
+      <c r="T7">
+        <v>0.5387498740095559</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>10.71350466666667</v>
+      </c>
+      <c r="H8">
+        <v>32.140514</v>
+      </c>
+      <c r="I8">
+        <v>0.7069946476917676</v>
+      </c>
+      <c r="J8">
+        <v>0.7069946476917675</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8">
+        <v>0.02620133333333333</v>
+      </c>
+      <c r="N8">
+        <v>0.07860399999999999</v>
+      </c>
+      <c r="O8">
+        <v>0.03420490480336879</v>
+      </c>
+      <c r="P8">
+        <v>0.0342049048033688</v>
+      </c>
+      <c r="Q8">
+        <v>0.2807081069395555</v>
+      </c>
+      <c r="R8">
+        <v>2.526372962456</v>
+      </c>
+      <c r="S8">
+        <v>0.02418268462078817</v>
+      </c>
+      <c r="T8">
+        <v>0.02418268462078817</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>10.71350466666667</v>
+      </c>
+      <c r="H9">
+        <v>32.140514</v>
+      </c>
+      <c r="I9">
+        <v>0.7069946476917676</v>
+      </c>
+      <c r="J9">
+        <v>0.7069946476917675</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.1527826666666667</v>
+      </c>
+      <c r="N9">
+        <v>0.458348</v>
+      </c>
+      <c r="O9">
+        <v>0.1994523142182902</v>
+      </c>
+      <c r="P9">
+        <v>0.1994523142182902</v>
+      </c>
+      <c r="Q9">
+        <v>1.636837812319111</v>
+      </c>
+      <c r="R9">
+        <v>14.731540310872</v>
+      </c>
+      <c r="S9">
+        <v>0.1410117186220678</v>
+      </c>
+      <c r="T9">
+        <v>0.1410117186220678</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
         <v>22</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.06359233333333333</v>
+      </c>
+      <c r="H10">
+        <v>0.190777</v>
+      </c>
+      <c r="I10">
+        <v>0.004196520251751181</v>
+      </c>
+      <c r="J10">
+        <v>0.00419652025175118</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M10">
+        <v>0.003305</v>
+      </c>
+      <c r="N10">
+        <v>0.009915</v>
+      </c>
+      <c r="O10">
+        <v>0.004314559451496128</v>
+      </c>
+      <c r="P10">
+        <v>0.004314559451496128</v>
+      </c>
+      <c r="Q10">
+        <v>0.0002101726616666667</v>
+      </c>
+      <c r="R10">
+        <v>0.001891553955</v>
+      </c>
+      <c r="S10">
+        <v>1.810613611558797E-05</v>
+      </c>
+      <c r="T10">
+        <v>1.810613611558796E-05</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.06359233333333333</v>
+      </c>
+      <c r="H11">
+        <v>0.190777</v>
+      </c>
+      <c r="I11">
+        <v>0.004196520251751181</v>
+      </c>
+      <c r="J11">
+        <v>0.00419652025175118</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0.583722</v>
+      </c>
+      <c r="N11">
+        <v>1.751166</v>
+      </c>
+      <c r="O11">
+        <v>0.7620282215268449</v>
+      </c>
+      <c r="P11">
+        <v>0.762028221526845</v>
+      </c>
+      <c r="Q11">
+        <v>0.037120243998</v>
+      </c>
+      <c r="R11">
+        <v>0.334082195982</v>
+      </c>
+      <c r="S11">
+        <v>0.00319786686404334</v>
+      </c>
+      <c r="T11">
+        <v>0.00319786686404334</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.06359233333333333</v>
+      </c>
+      <c r="H12">
+        <v>0.190777</v>
+      </c>
+      <c r="I12">
+        <v>0.004196520251751181</v>
+      </c>
+      <c r="J12">
+        <v>0.00419652025175118</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M12">
+        <v>0.02620133333333333</v>
+      </c>
+      <c r="N12">
+        <v>0.07860399999999999</v>
+      </c>
+      <c r="O12">
+        <v>0.03420490480336879</v>
+      </c>
+      <c r="P12">
+        <v>0.0342049048033688</v>
+      </c>
+      <c r="Q12">
+        <v>0.001666203923111111</v>
+      </c>
+      <c r="R12">
+        <v>0.014995835308</v>
+      </c>
+      <c r="S12">
+        <v>0.0001435415757165584</v>
+      </c>
+      <c r="T12">
+        <v>0.0001435415757165584</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.06359233333333333</v>
+      </c>
+      <c r="H13">
+        <v>0.190777</v>
+      </c>
+      <c r="I13">
+        <v>0.004196520251751181</v>
+      </c>
+      <c r="J13">
+        <v>0.00419652025175118</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.1527826666666667</v>
+      </c>
+      <c r="N13">
+        <v>0.458348</v>
+      </c>
+      <c r="O13">
+        <v>0.1994523142182902</v>
+      </c>
+      <c r="P13">
+        <v>0.1994523142182902</v>
+      </c>
+      <c r="Q13">
+        <v>0.009715806266222224</v>
+      </c>
+      <c r="R13">
+        <v>0.08744225639600001</v>
+      </c>
+      <c r="S13">
+        <v>0.0008370056758756948</v>
+      </c>
+      <c r="T13">
+        <v>0.0008370056758756948</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.04203033333333334</v>
+      </c>
+      <c r="H14">
+        <v>0.126091</v>
+      </c>
+      <c r="I14">
+        <v>0.002773622790292112</v>
+      </c>
+      <c r="J14">
+        <v>0.002773622790292112</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.003305</v>
+      </c>
+      <c r="N14">
+        <v>0.009915</v>
+      </c>
+      <c r="O14">
+        <v>0.004314559451496128</v>
+      </c>
+      <c r="P14">
+        <v>0.004314559451496128</v>
+      </c>
+      <c r="Q14">
+        <v>0.0001389102516666667</v>
+      </c>
+      <c r="R14">
+        <v>0.001250192265</v>
+      </c>
+      <c r="S14">
+        <v>1.196696042473989E-05</v>
+      </c>
+      <c r="T14">
+        <v>1.196696042473989E-05</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.04203033333333334</v>
+      </c>
+      <c r="H15">
+        <v>0.126091</v>
+      </c>
+      <c r="I15">
+        <v>0.002773622790292112</v>
+      </c>
+      <c r="J15">
+        <v>0.002773622790292112</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0.583722</v>
+      </c>
+      <c r="N15">
+        <v>1.751166</v>
+      </c>
+      <c r="O15">
+        <v>0.7620282215268449</v>
+      </c>
+      <c r="P15">
+        <v>0.762028221526845</v>
+      </c>
+      <c r="Q15">
+        <v>0.024534030234</v>
+      </c>
+      <c r="R15">
+        <v>0.220806272106</v>
+      </c>
+      <c r="S15">
+        <v>0.002113578842072623</v>
+      </c>
+      <c r="T15">
+        <v>0.002113578842072623</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>3.2631554509153</v>
-      </c>
-      <c r="H7">
-        <v>3.2631554509153</v>
-      </c>
-      <c r="I7">
-        <v>0.2261485340051682</v>
-      </c>
-      <c r="J7">
-        <v>0.2261485340051682</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>0.144317676046936</v>
-      </c>
-      <c r="N7">
-        <v>0.144317676046936</v>
-      </c>
-      <c r="O7">
-        <v>0.199205448537197</v>
-      </c>
-      <c r="P7">
-        <v>0.199205448537197</v>
-      </c>
-      <c r="Q7">
-        <v>0.4709310112559876</v>
-      </c>
-      <c r="R7">
-        <v>0.4709310112559876</v>
-      </c>
-      <c r="S7">
-        <v>0.0450500201525291</v>
-      </c>
-      <c r="T7">
-        <v>0.0450500201525291</v>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.04203033333333334</v>
+      </c>
+      <c r="H16">
+        <v>0.126091</v>
+      </c>
+      <c r="I16">
+        <v>0.002773622790292112</v>
+      </c>
+      <c r="J16">
+        <v>0.002773622790292112</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>0.02620133333333333</v>
+      </c>
+      <c r="N16">
+        <v>0.07860399999999999</v>
+      </c>
+      <c r="O16">
+        <v>0.03420490480336879</v>
+      </c>
+      <c r="P16">
+        <v>0.0342049048033688</v>
+      </c>
+      <c r="Q16">
+        <v>0.001101250773777778</v>
+      </c>
+      <c r="R16">
+        <v>0.009911256964</v>
+      </c>
+      <c r="S16">
+        <v>9.487150350239579E-05</v>
+      </c>
+      <c r="T16">
+        <v>9.487150350239582E-05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.04203033333333334</v>
+      </c>
+      <c r="H17">
+        <v>0.126091</v>
+      </c>
+      <c r="I17">
+        <v>0.002773622790292112</v>
+      </c>
+      <c r="J17">
+        <v>0.002773622790292112</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.1527826666666667</v>
+      </c>
+      <c r="N17">
+        <v>0.458348</v>
+      </c>
+      <c r="O17">
+        <v>0.1994523142182902</v>
+      </c>
+      <c r="P17">
+        <v>0.1994523142182902</v>
+      </c>
+      <c r="Q17">
+        <v>0.006421506407555557</v>
+      </c>
+      <c r="R17">
+        <v>0.057793557668</v>
+      </c>
+      <c r="S17">
+        <v>0.000553205484292353</v>
+      </c>
+      <c r="T17">
+        <v>0.000553205484292353</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.06890400000000001</v>
+      </c>
+      <c r="H18">
+        <v>0.206712</v>
+      </c>
+      <c r="I18">
+        <v>0.004547042328372866</v>
+      </c>
+      <c r="J18">
+        <v>0.004547042328372865</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M18">
+        <v>0.003305</v>
+      </c>
+      <c r="N18">
+        <v>0.009915</v>
+      </c>
+      <c r="O18">
+        <v>0.004314559451496128</v>
+      </c>
+      <c r="P18">
+        <v>0.004314559451496128</v>
+      </c>
+      <c r="Q18">
+        <v>0.00022772772</v>
+      </c>
+      <c r="R18">
+        <v>0.00204954948</v>
+      </c>
+      <c r="S18">
+        <v>1.961848445423411E-05</v>
+      </c>
+      <c r="T18">
+        <v>1.96184844542341E-05</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.06890400000000001</v>
+      </c>
+      <c r="H19">
+        <v>0.206712</v>
+      </c>
+      <c r="I19">
+        <v>0.004547042328372866</v>
+      </c>
+      <c r="J19">
+        <v>0.004547042328372865</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0.583722</v>
+      </c>
+      <c r="N19">
+        <v>1.751166</v>
+      </c>
+      <c r="O19">
+        <v>0.7620282215268449</v>
+      </c>
+      <c r="P19">
+        <v>0.762028221526845</v>
+      </c>
+      <c r="Q19">
+        <v>0.040220780688</v>
+      </c>
+      <c r="R19">
+        <v>0.361987026192</v>
+      </c>
+      <c r="S19">
+        <v>0.003464974578697259</v>
+      </c>
+      <c r="T19">
+        <v>0.003464974578697259</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G20">
+        <v>0.06890400000000001</v>
+      </c>
+      <c r="H20">
+        <v>0.206712</v>
+      </c>
+      <c r="I20">
+        <v>0.004547042328372866</v>
+      </c>
+      <c r="J20">
+        <v>0.004547042328372865</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M20">
+        <v>0.02620133333333333</v>
+      </c>
+      <c r="N20">
+        <v>0.07860399999999999</v>
+      </c>
+      <c r="O20">
+        <v>0.03420490480336879</v>
+      </c>
+      <c r="P20">
+        <v>0.0342049048033688</v>
+      </c>
+      <c r="Q20">
+        <v>0.001805376672</v>
+      </c>
+      <c r="R20">
+        <v>0.016248390048</v>
+      </c>
+      <c r="S20">
+        <v>0.0001555311499788822</v>
+      </c>
+      <c r="T20">
+        <v>0.0001555311499788822</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.06890400000000001</v>
+      </c>
+      <c r="H21">
+        <v>0.206712</v>
+      </c>
+      <c r="I21">
+        <v>0.004547042328372866</v>
+      </c>
+      <c r="J21">
+        <v>0.004547042328372865</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.1527826666666667</v>
+      </c>
+      <c r="N21">
+        <v>0.458348</v>
+      </c>
+      <c r="O21">
+        <v>0.1994523142182902</v>
+      </c>
+      <c r="P21">
+        <v>0.1994523142182902</v>
+      </c>
+      <c r="Q21">
+        <v>0.010527336864</v>
+      </c>
+      <c r="R21">
+        <v>0.09474603177600001</v>
+      </c>
+      <c r="S21">
+        <v>0.0009069181152424906</v>
+      </c>
+      <c r="T21">
+        <v>0.0009069181152424905</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>3.417961</v>
+      </c>
+      <c r="H22">
+        <v>10.253883</v>
+      </c>
+      <c r="I22">
+        <v>0.2255545881767045</v>
+      </c>
+      <c r="J22">
+        <v>0.2255545881767045</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M22">
+        <v>0.003305</v>
+      </c>
+      <c r="N22">
+        <v>0.009915</v>
+      </c>
+      <c r="O22">
+        <v>0.004314559451496128</v>
+      </c>
+      <c r="P22">
+        <v>0.004314559451496128</v>
+      </c>
+      <c r="Q22">
+        <v>0.011296361105</v>
+      </c>
+      <c r="R22">
+        <v>0.101667249945</v>
+      </c>
+      <c r="S22">
+        <v>0.0009731686802461171</v>
+      </c>
+      <c r="T22">
+        <v>0.0009731686802461171</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>3.417961</v>
+      </c>
+      <c r="H23">
+        <v>10.253883</v>
+      </c>
+      <c r="I23">
+        <v>0.2255545881767045</v>
+      </c>
+      <c r="J23">
+        <v>0.2255545881767045</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>0.583722</v>
+      </c>
+      <c r="N23">
+        <v>1.751166</v>
+      </c>
+      <c r="O23">
+        <v>0.7620282215268449</v>
+      </c>
+      <c r="P23">
+        <v>0.762028221526845</v>
+      </c>
+      <c r="Q23">
+        <v>1.995139030842</v>
+      </c>
+      <c r="R23">
+        <v>17.956251277578</v>
+      </c>
+      <c r="S23">
+        <v>0.171878961685514</v>
+      </c>
+      <c r="T23">
+        <v>0.1718789616855141</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>3.417961</v>
+      </c>
+      <c r="H24">
+        <v>10.253883</v>
+      </c>
+      <c r="I24">
+        <v>0.2255545881767045</v>
+      </c>
+      <c r="J24">
+        <v>0.2255545881767045</v>
+      </c>
+      <c r="K24">
+        <v>2</v>
+      </c>
+      <c r="L24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M24">
+        <v>0.02620133333333333</v>
+      </c>
+      <c r="N24">
+        <v>0.07860399999999999</v>
+      </c>
+      <c r="O24">
+        <v>0.03420490480336879</v>
+      </c>
+      <c r="P24">
+        <v>0.0342049048033688</v>
+      </c>
+      <c r="Q24">
+        <v>0.08955513548133333</v>
+      </c>
+      <c r="R24">
+        <v>0.8059962193319999</v>
+      </c>
+      <c r="S24">
+        <v>0.007715073216547228</v>
+      </c>
+      <c r="T24">
+        <v>0.00771507321654723</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>3.417961</v>
+      </c>
+      <c r="H25">
+        <v>10.253883</v>
+      </c>
+      <c r="I25">
+        <v>0.2255545881767045</v>
+      </c>
+      <c r="J25">
+        <v>0.2255545881767045</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0.1527826666666667</v>
+      </c>
+      <c r="N25">
+        <v>0.458348</v>
+      </c>
+      <c r="O25">
+        <v>0.1994523142182902</v>
+      </c>
+      <c r="P25">
+        <v>0.1994523142182902</v>
+      </c>
+      <c r="Q25">
+        <v>0.5222051961426667</v>
+      </c>
+      <c r="R25">
+        <v>4.699846765284001</v>
+      </c>
+      <c r="S25">
+        <v>0.0449873845943971</v>
+      </c>
+      <c r="T25">
+        <v>0.04498738459439711</v>
       </c>
     </row>
   </sheetData>
